--- a/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
+++ b/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
@@ -17,9 +17,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市大里區大孝段00380001地號</t>
+  </si>
+  <si>
+    <t>臺中市大里區大孝段00380000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>16分之1</t>
+  </si>
+  <si>
+    <t>謝俊雄</t>
+  </si>
+  <si>
+    <t>93年08月26日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>何欣純</t>
+  </si>
+  <si>
+    <t>tmp8e3c1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -40,40 +121,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市大里區大孝段0038-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市大里區大孝段0038-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>16分之1</t>
-  </si>
-  <si>
-    <t>謝俊雄</t>
-  </si>
-  <si>
-    <t>93年08月 26日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺中市清水區秀水段秀水小段 00060-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市清水區秀水段秀水小段 01498-000 建號</t>
-  </si>
-  <si>
-    <t>89年01月 14日</t>
+    <t>臺中市清水區秀水段秀水小段00060000建號</t>
+  </si>
+  <si>
+    <t>臺中市清水區秀水段秀水小段01498000建號</t>
+  </si>
+  <si>
+    <t>89年01月14日</t>
   </si>
   <si>
     <t>新建</t>
@@ -112,9 +166,6 @@
     <t>富貴保本三福終身壽險</t>
   </si>
   <si>
-    <t>何欣純</t>
-  </si>
-  <si>
     <t>2筆</t>
   </si>
   <si>
@@ -139,22 +190,22 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>霧峰鄉農會 臺中市霧峰區四德路10號</t>
-  </si>
-  <si>
-    <t>台中商業銀行清水分行 臺中市清水區中山路104號</t>
-  </si>
-  <si>
-    <t>5,215,377</t>
-  </si>
-  <si>
-    <t>1，500，000</t>
-  </si>
-  <si>
-    <t>93年09月 14日</t>
-  </si>
-  <si>
-    <t>102年09月 26日</t>
+    <t>霧峰鄉農會臺中市霧峰區四德路10號</t>
+  </si>
+  <si>
+    <t>台中商業銀行清水分行臺中市清水區中山路104號</t>
+  </si>
+  <si>
+    <t>5215377</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>93年09月14日</t>
+  </si>
+  <si>
+    <t>102年09月26日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -516,13 +567,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,57 +595,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>77.76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>288.88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -612,25 +726,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -638,25 +752,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>165.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -664,25 +778,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>269.37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -700,16 +814,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -717,16 +831,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -734,13 +848,13 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -749,13 +863,13 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -764,13 +878,13 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -789,22 +903,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -812,22 +926,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -835,22 +949,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
+++ b/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -61,102 +61,75 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市大里區大孝段00380001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市大里區大孝段00380000地號</t>
   </si>
   <si>
+    <t>16分之1</t>
+  </si>
+  <si>
+    <t>謝俊雄</t>
+  </si>
+  <si>
+    <t>93年08月26日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>何欣純</t>
+  </si>
+  <si>
+    <t>tmp8e3c1</t>
+  </si>
+  <si>
+    <t>臺中市清水區秀水段秀水小段00060000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>16分之1</t>
-  </si>
-  <si>
-    <t>謝俊雄</t>
-  </si>
-  <si>
-    <t>93年08月26日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-30</t>
-  </si>
-  <si>
-    <t>何欣純</t>
-  </si>
-  <si>
-    <t>tmp8e3c1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市清水區秀水段秀水小段00060000建號</t>
+    <t>89年01月14日</t>
+  </si>
+  <si>
+    <t>新建</t>
   </si>
   <si>
     <t>臺中市清水區秀水段秀水小段01498000建號</t>
   </si>
   <si>
-    <t>89年01月14日</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>鑫添鑫終身壽險</t>
+  </si>
+  <si>
+    <t>2筆</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>國寶人壽</t>
   </si>
   <si>
-    <t>鑫添鑫終身壽險</t>
-  </si>
-  <si>
     <t>金豐樂養老保險</t>
   </si>
   <si>
@@ -166,49 +139,28 @@
     <t>富貴保本三福終身壽險</t>
   </si>
   <si>
-    <t>2筆</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>霧峰鄉農會臺中市霧峰區四德路10號</t>
   </si>
   <si>
+    <t>5215377</t>
+  </si>
+  <si>
+    <t>93年09月14日</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
     <t>台中商業銀行清水分行臺中市清水區中山路104號</t>
   </si>
   <si>
-    <t>5215377</t>
-  </si>
-  <si>
     <t>1500000</t>
   </si>
   <si>
-    <t>93年09月14日</t>
-  </si>
-  <si>
     <t>102年09月26日</t>
-  </si>
-  <si>
-    <t>房貸</t>
   </si>
 </sst>
 </file>
@@ -567,13 +519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,19 +568,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>77.76</v>
+        <v>288.88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -661,54 +619,13 @@
         <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>288.88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1733</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="P2" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>18.055</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -728,74 +645,48 @@
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>165.8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>165.8</v>
+        <v>269.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>269.37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -806,7 +697,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -814,44 +705,42 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -860,33 +749,18 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -895,7 +769,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,68 +777,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
+++ b/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -67,9 +67,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市大里區大孝段00380001地號</t>
+  </si>
+  <si>
     <t>臺中市大里區大孝段00380000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>16分之1</t>
   </si>
   <si>
@@ -103,16 +109,13 @@
     <t>臺中市清水區秀水段秀水小段00060000建號</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>臺中市清水區秀水段秀水小段01498000建號</t>
   </si>
   <si>
     <t>89年01月14日</t>
   </si>
   <si>
     <t>新建</t>
-  </si>
-  <si>
-    <t>臺中市清水區秀水段秀水小段01498000建號</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,54 +580,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>288.88</v>
+        <v>77.76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2">
         <v>1733</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>77.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>288.88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2">
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.0625</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>18.055</v>
       </c>
     </row>
@@ -635,59 +691,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>165.8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1">
+      <c r="M2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>165.8</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>269.37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1733</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="O3" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>269.37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +860,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,36 +868,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -743,24 +908,39 @@
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -769,7 +949,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,45 +957,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
+++ b/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>新建</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>25</v>
@@ -826,7 +829,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>25</v>
@@ -868,16 +871,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -885,16 +888,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -902,10 +905,10 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -917,10 +920,10 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -932,10 +935,10 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -957,22 +960,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -980,22 +983,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1003,22 +1006,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
+++ b/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -121,21 +121,21 @@
     <t>building</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>國寶人壽</t>
+  </si>
+  <si>
     <t>鑫添鑫終身壽險</t>
   </si>
   <si>
-    <t>2筆</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>國寶人壽</t>
-  </si>
-  <si>
     <t>金豐樂養老保險</t>
   </si>
   <si>
@@ -145,28 +145,34 @@
     <t>富貴保本三福終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>霧峰鄉農會臺中市霧峰區四德路10號</t>
   </si>
   <si>
-    <t>5215377</t>
+    <t>台中商業銀行清水分行臺中市清水區中山路104號</t>
   </si>
   <si>
     <t>93年09月14日</t>
   </si>
   <si>
+    <t>102年09月26日</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>台中商業銀行清水分行臺中市清水區中山路104號</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>102年09月26日</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -863,49 +869,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -913,14 +955,34 @@
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1733</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -928,14 +990,34 @@
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1733</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
@@ -943,7 +1025,27 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1733</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,61 +1054,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5215377</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1014,14 +1158,35 @@
       <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
+      <c r="E3" s="2">
+        <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1733</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
+++ b/legislator/property/output/normal/何欣純_2013-12-30_財產申報表_tmp8e3c1.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="保險" sheetId="3" r:id="rId3"/>
-    <sheet name="債務" sheetId="4" r:id="rId4"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="保險" sheetId="4" r:id="rId4"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +120,18 @@
   </si>
   <si>
     <t>building</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>國瑞(國產091603)</t>
+  </si>
+  <si>
+    <t>96年10月25日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>company</t>
@@ -869,6 +882,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1497</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1733</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -877,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -912,16 +1023,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -947,16 +1058,16 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -982,16 +1093,16 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -1017,16 +1128,16 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1052,7 +1163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -1062,10 +1173,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1106,25 +1217,25 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>5215377</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -1150,25 +1261,25 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2">
         <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>25</v>
